--- a/data/CourseSessionsList MAM2022.xlsx
+++ b/data/CourseSessionsList MAM2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazmernagy-betegh/Library/Mobile Documents/com~apple~CloudDocs/LBS/AM13_Decision Analytics and Modelling/am13-group-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78535B11-336A-874A-81AC-BA737AAEF921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A2AF9A-E4CC-9E4B-986E-98E275BB5BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2636,10 +2636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2685,7 +2686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -3245,7 +3246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3595,7 +3596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -3700,7 +3701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -3770,7 +3771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -4085,7 +4086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -4120,7 +4121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -4155,7 +4156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -4260,7 +4261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -4330,7 +4331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -4365,7 +4366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -4400,7 +4401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -4470,7 +4471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -4750,7 +4751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>125</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -4890,7 +4891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -4925,7 +4926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>107</v>
       </c>
@@ -4960,7 +4961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>125</v>
       </c>
@@ -5030,7 +5031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>125</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -5100,7 +5101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -5170,7 +5171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>125</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -5310,7 +5311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -5380,7 +5381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>125</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -5590,7 +5591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>176</v>
       </c>
@@ -5625,7 +5626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>180</v>
       </c>
@@ -5695,7 +5696,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>180</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>180</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>171</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>171</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>125</v>
       </c>
@@ -5905,7 +5906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>165</v>
       </c>
@@ -5940,7 +5941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>171</v>
       </c>
@@ -5975,7 +5976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>125</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>176</v>
       </c>
@@ -6045,7 +6046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>171</v>
       </c>
@@ -6080,7 +6081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>171</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -6150,7 +6151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>125</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>165</v>
       </c>
@@ -6220,7 +6221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>78</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>68</v>
       </c>
@@ -6325,7 +6326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -6360,7 +6361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -6395,7 +6396,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>180</v>
       </c>
@@ -6430,7 +6431,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>73</v>
       </c>
@@ -6465,7 +6466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>180</v>
       </c>
@@ -6500,7 +6501,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>180</v>
       </c>
@@ -6570,7 +6571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>171</v>
       </c>
@@ -6605,7 +6606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>171</v>
       </c>
@@ -6640,7 +6641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>125</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>165</v>
       </c>
@@ -6710,7 +6711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -6780,7 +6781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>171</v>
       </c>
@@ -6815,7 +6816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>171</v>
       </c>
@@ -6850,7 +6851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -6885,7 +6886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>165</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>180</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>180</v>
       </c>
@@ -7025,7 +7026,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>180</v>
       </c>
@@ -7060,7 +7061,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>180</v>
       </c>
@@ -7095,7 +7096,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>221</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>226</v>
       </c>
@@ -7200,7 +7201,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>221</v>
       </c>
@@ -7235,7 +7236,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>221</v>
       </c>
@@ -7305,7 +7306,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>221</v>
       </c>
@@ -7340,7 +7341,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>221</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>226</v>
       </c>
@@ -7445,7 +7446,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>221</v>
       </c>
@@ -7480,7 +7481,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>221</v>
       </c>
@@ -7550,7 +7551,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>221</v>
       </c>
@@ -7585,7 +7586,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>221</v>
       </c>
@@ -7655,7 +7656,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>226</v>
       </c>
@@ -7690,7 +7691,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>221</v>
       </c>
@@ -7725,7 +7726,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>221</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>221</v>
       </c>
@@ -7830,7 +7831,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>221</v>
       </c>
@@ -7900,7 +7901,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>226</v>
       </c>
@@ -7935,7 +7936,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>221</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>221</v>
       </c>
@@ -8040,7 +8041,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>221</v>
       </c>
@@ -8075,7 +8076,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>221</v>
       </c>
@@ -8145,7 +8146,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>226</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>221</v>
       </c>
@@ -8215,7 +8216,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>221</v>
       </c>
@@ -8285,7 +8286,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>221</v>
       </c>
@@ -8320,7 +8321,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>221</v>
       </c>
@@ -8355,7 +8356,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>254</v>
       </c>
@@ -8390,7 +8391,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>254</v>
       </c>
@@ -8425,7 +8426,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>260</v>
       </c>
@@ -8460,7 +8461,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>260</v>
       </c>
@@ -8495,7 +8496,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>265</v>
       </c>
@@ -8530,7 +8531,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>265</v>
       </c>
@@ -8565,7 +8566,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>260</v>
       </c>
@@ -8670,7 +8671,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>273</v>
       </c>
@@ -8705,7 +8706,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -8740,7 +8741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>276</v>
       </c>
@@ -8775,7 +8776,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>278</v>
       </c>
@@ -8810,7 +8811,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>282</v>
       </c>
@@ -8845,7 +8846,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>282</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>286</v>
       </c>
@@ -8915,7 +8916,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>288</v>
       </c>
@@ -8985,7 +8986,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>290</v>
       </c>
@@ -9020,7 +9021,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>254</v>
       </c>
@@ -9055,7 +9056,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>254</v>
       </c>
@@ -9090,7 +9091,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>294</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>260</v>
       </c>
@@ -9160,7 +9161,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>260</v>
       </c>
@@ -9195,7 +9196,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>265</v>
       </c>
@@ -9230,7 +9231,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>265</v>
       </c>
@@ -9265,7 +9266,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>260</v>
       </c>
@@ -9370,7 +9371,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>273</v>
       </c>
@@ -9405,7 +9406,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>297</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>276</v>
       </c>
@@ -9475,7 +9476,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>278</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>300</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>286</v>
       </c>
@@ -9615,7 +9616,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>288</v>
       </c>
@@ -9685,7 +9686,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>290</v>
       </c>
@@ -9720,7 +9721,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>303</v>
       </c>
@@ -9755,7 +9756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>297</v>
       </c>
@@ -9790,7 +9791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>306</v>
       </c>
@@ -9825,7 +9826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>180</v>
       </c>
@@ -9860,7 +9861,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>180</v>
       </c>
@@ -9895,7 +9896,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>180</v>
       </c>
@@ -9930,7 +9931,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>180</v>
       </c>
@@ -9965,7 +9966,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>254</v>
       </c>
@@ -10000,7 +10001,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>254</v>
       </c>
@@ -10035,7 +10036,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>95</v>
       </c>
@@ -10070,7 +10071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>260</v>
       </c>
@@ -10105,7 +10106,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>260</v>
       </c>
@@ -10140,7 +10141,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>265</v>
       </c>
@@ -10175,7 +10176,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>265</v>
       </c>
@@ -10210,7 +10211,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>260</v>
       </c>
@@ -10315,7 +10316,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>273</v>
       </c>
@@ -10350,7 +10351,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>176</v>
       </c>
@@ -10385,7 +10386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>276</v>
       </c>
@@ -10420,7 +10421,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>278</v>
       </c>
@@ -10455,7 +10456,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>282</v>
       </c>
@@ -10490,7 +10491,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>282</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>286</v>
       </c>
@@ -10560,7 +10561,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>288</v>
       </c>
@@ -10630,7 +10631,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>290</v>
       </c>
@@ -10665,7 +10666,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>254</v>
       </c>
@@ -10700,7 +10701,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>107</v>
       </c>
@@ -10735,7 +10736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>254</v>
       </c>
@@ -10770,7 +10771,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>294</v>
       </c>
@@ -10805,7 +10806,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>260</v>
       </c>
@@ -10840,7 +10841,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>260</v>
       </c>
@@ -10875,7 +10876,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>265</v>
       </c>
@@ -10910,7 +10911,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>265</v>
       </c>
@@ -10945,7 +10946,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>260</v>
       </c>
@@ -11050,7 +11051,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>273</v>
       </c>
@@ -11085,7 +11086,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>297</v>
       </c>
@@ -11120,7 +11121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>276</v>
       </c>
@@ -11155,7 +11156,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>278</v>
       </c>
@@ -11225,7 +11226,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>300</v>
       </c>
@@ -11260,7 +11261,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>286</v>
       </c>
@@ -11295,7 +11296,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>288</v>
       </c>
@@ -11330,7 +11331,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>300</v>
       </c>
@@ -11365,7 +11366,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>300</v>
       </c>
@@ -11435,7 +11436,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>290</v>
       </c>
@@ -11470,7 +11471,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>303</v>
       </c>
@@ -11505,7 +11506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>297</v>
       </c>
@@ -11540,7 +11541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>306</v>
       </c>
@@ -11575,7 +11576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -11610,7 +11611,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -11645,7 +11646,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>95</v>
       </c>
@@ -11680,7 +11681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -11715,7 +11716,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -11750,7 +11751,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>265</v>
       </c>
@@ -11785,7 +11786,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>265</v>
       </c>
@@ -11820,7 +11821,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>260</v>
       </c>
@@ -11925,7 +11926,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>273</v>
       </c>
@@ -11960,7 +11961,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>176</v>
       </c>
@@ -11995,7 +11996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>276</v>
       </c>
@@ -12030,7 +12031,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>278</v>
       </c>
@@ -12065,7 +12066,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>282</v>
       </c>
@@ -12100,7 +12101,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>282</v>
       </c>
@@ -12135,7 +12136,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>286</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>288</v>
       </c>
@@ -12240,7 +12241,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>290</v>
       </c>
@@ -12275,7 +12276,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>254</v>
       </c>
@@ -12310,7 +12311,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>254</v>
       </c>
@@ -12345,7 +12346,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>294</v>
       </c>
@@ -12380,7 +12381,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>107</v>
       </c>
@@ -12415,7 +12416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>260</v>
       </c>
@@ -12450,7 +12451,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>260</v>
       </c>
@@ -12485,7 +12486,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>265</v>
       </c>
@@ -12520,7 +12521,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>265</v>
       </c>
@@ -12555,7 +12556,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>260</v>
       </c>
@@ -12660,7 +12661,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>273</v>
       </c>
@@ -12695,7 +12696,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>297</v>
       </c>
@@ -12730,7 +12731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>276</v>
       </c>
@@ -12765,7 +12766,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>278</v>
       </c>
@@ -12835,7 +12836,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>286</v>
       </c>
@@ -12870,7 +12871,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>288</v>
       </c>
@@ -12940,7 +12941,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>290</v>
       </c>
@@ -12975,7 +12976,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>303</v>
       </c>
@@ -13010,7 +13011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -13045,7 +13046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>306</v>
       </c>
@@ -13080,7 +13081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>180</v>
       </c>
@@ -13115,7 +13116,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>180</v>
       </c>
@@ -13150,7 +13151,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>180</v>
       </c>
@@ -13185,7 +13186,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>254</v>
       </c>
@@ -13220,7 +13221,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>254</v>
       </c>
@@ -13255,7 +13256,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>260</v>
       </c>
@@ -13290,7 +13291,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>260</v>
       </c>
@@ -13325,7 +13326,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>265</v>
       </c>
@@ -13360,7 +13361,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>265</v>
       </c>
@@ -13395,7 +13396,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>260</v>
       </c>
@@ -13430,7 +13431,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>176</v>
       </c>
@@ -13535,7 +13536,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>273</v>
       </c>
@@ -13570,7 +13571,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>176</v>
       </c>
@@ -13605,7 +13606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>276</v>
       </c>
@@ -13640,7 +13641,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>278</v>
       </c>
@@ -13675,7 +13676,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>282</v>
       </c>
@@ -13710,7 +13711,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>282</v>
       </c>
@@ -13745,7 +13746,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>286</v>
       </c>
@@ -13780,7 +13781,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>288</v>
       </c>
@@ -13850,7 +13851,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>290</v>
       </c>
@@ -13885,7 +13886,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>254</v>
       </c>
@@ -13920,7 +13921,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>254</v>
       </c>
@@ -13955,7 +13956,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>294</v>
       </c>
@@ -13990,7 +13991,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>260</v>
       </c>
@@ -14025,7 +14026,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>260</v>
       </c>
@@ -14060,7 +14061,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>265</v>
       </c>
@@ -14095,7 +14096,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>265</v>
       </c>
@@ -14130,7 +14131,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>260</v>
       </c>
@@ -14235,7 +14236,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>273</v>
       </c>
@@ -14270,7 +14271,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>297</v>
       </c>
@@ -14305,7 +14306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>276</v>
       </c>
@@ -14340,7 +14341,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>278</v>
       </c>
@@ -14410,7 +14411,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>286</v>
       </c>
@@ -14445,7 +14446,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>288</v>
       </c>
@@ -14515,7 +14516,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>290</v>
       </c>
@@ -14550,7 +14551,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>297</v>
       </c>
@@ -14585,7 +14586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>306</v>
       </c>
@@ -14620,7 +14621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>303</v>
       </c>
@@ -14655,7 +14656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>254</v>
       </c>
@@ -14690,7 +14691,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>254</v>
       </c>
@@ -14725,7 +14726,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>260</v>
       </c>
@@ -14760,7 +14761,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>260</v>
       </c>
@@ -14795,7 +14796,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>265</v>
       </c>
@@ -14830,7 +14831,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>265</v>
       </c>
@@ -14865,7 +14866,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>260</v>
       </c>
@@ -14970,7 +14971,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>273</v>
       </c>
@@ -15005,7 +15006,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>176</v>
       </c>
@@ -15040,7 +15041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>276</v>
       </c>
@@ -15075,7 +15076,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>278</v>
       </c>
@@ -15110,7 +15111,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>282</v>
       </c>
@@ -15145,7 +15146,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>282</v>
       </c>
@@ -15180,7 +15181,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>286</v>
       </c>
@@ -15215,7 +15216,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>288</v>
       </c>
@@ -15285,7 +15286,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>290</v>
       </c>
@@ -15320,7 +15321,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>254</v>
       </c>
@@ -15355,7 +15356,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>254</v>
       </c>
@@ -15390,7 +15391,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>294</v>
       </c>
@@ -15425,7 +15426,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>260</v>
       </c>
@@ -15460,7 +15461,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>260</v>
       </c>
@@ -15495,7 +15496,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>265</v>
       </c>
@@ -15530,7 +15531,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>265</v>
       </c>
@@ -15565,7 +15566,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>260</v>
       </c>
@@ -15670,7 +15671,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>273</v>
       </c>
@@ -15705,7 +15706,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>297</v>
       </c>
@@ -15740,7 +15741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>276</v>
       </c>
@@ -15775,7 +15776,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>278</v>
       </c>
@@ -15845,7 +15846,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>286</v>
       </c>
@@ -15880,7 +15881,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>288</v>
       </c>
@@ -15950,7 +15951,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>290</v>
       </c>
@@ -15985,7 +15986,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>303</v>
       </c>
@@ -16020,7 +16021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>306</v>
       </c>
@@ -16055,7 +16056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>351</v>
       </c>
@@ -16090,7 +16091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>357</v>
       </c>
@@ -16125,7 +16126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>359</v>
       </c>
@@ -16160,7 +16161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>269</v>
       </c>
@@ -16195,7 +16196,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>271</v>
       </c>
@@ -16230,7 +16231,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>351</v>
       </c>
@@ -16265,7 +16266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>357</v>
       </c>
@@ -16300,7 +16301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>359</v>
       </c>
@@ -16335,7 +16336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>362</v>
       </c>
@@ -16370,7 +16371,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>363</v>
       </c>
@@ -16405,7 +16406,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>366</v>
       </c>
@@ -16440,7 +16441,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>366</v>
       </c>
@@ -16475,7 +16476,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>363</v>
       </c>
@@ -16510,7 +16511,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>362</v>
       </c>
@@ -16545,7 +16546,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>351</v>
       </c>
@@ -16580,7 +16581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>357</v>
       </c>
@@ -16615,7 +16616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>359</v>
       </c>
@@ -16650,7 +16651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>366</v>
       </c>
@@ -16685,7 +16686,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>362</v>
       </c>
@@ -16720,7 +16721,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>363</v>
       </c>
@@ -16755,7 +16756,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>366</v>
       </c>
@@ -16790,7 +16791,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>366</v>
       </c>
@@ -16825,7 +16826,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>363</v>
       </c>
@@ -16860,7 +16861,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>362</v>
       </c>
@@ -16895,7 +16896,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>351</v>
       </c>
@@ -16930,7 +16931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>357</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>359</v>
       </c>
@@ -17000,7 +17001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>362</v>
       </c>
@@ -17035,7 +17036,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>363</v>
       </c>
@@ -17070,7 +17071,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>366</v>
       </c>
@@ -17105,7 +17106,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>366</v>
       </c>
@@ -17140,7 +17141,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>366</v>
       </c>
@@ -17175,7 +17176,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>363</v>
       </c>
@@ -17210,7 +17211,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>362</v>
       </c>
@@ -17245,7 +17246,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>351</v>
       </c>
@@ -17280,7 +17281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>357</v>
       </c>
@@ -17315,7 +17316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>359</v>
       </c>
@@ -17350,7 +17351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>362</v>
       </c>
@@ -17385,7 +17386,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>363</v>
       </c>
@@ -17420,7 +17421,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>366</v>
       </c>
@@ -17455,7 +17456,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>366</v>
       </c>
@@ -17490,7 +17491,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>366</v>
       </c>
@@ -17525,7 +17526,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>363</v>
       </c>
@@ -17560,7 +17561,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>362</v>
       </c>
@@ -17595,7 +17596,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>351</v>
       </c>
@@ -17630,7 +17631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>357</v>
       </c>
@@ -17665,7 +17666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>359</v>
       </c>
@@ -17700,7 +17701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>362</v>
       </c>
@@ -17735,7 +17736,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>363</v>
       </c>
@@ -17770,7 +17771,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>366</v>
       </c>
@@ -17805,7 +17806,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>366</v>
       </c>
@@ -17840,7 +17841,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>363</v>
       </c>
@@ -17875,7 +17876,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>362</v>
       </c>
@@ -17945,7 +17946,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>372</v>
       </c>
@@ -17980,7 +17981,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>375</v>
       </c>
@@ -18015,7 +18016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>377</v>
       </c>
@@ -18050,7 +18051,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>381</v>
       </c>
@@ -18085,7 +18086,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>383</v>
       </c>
@@ -18120,7 +18121,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>385</v>
       </c>
@@ -18155,7 +18156,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>388</v>
       </c>
@@ -18190,7 +18191,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>391</v>
       </c>
@@ -18225,7 +18226,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>393</v>
       </c>
@@ -18295,7 +18296,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>396</v>
       </c>
@@ -18330,7 +18331,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>399</v>
       </c>
@@ -18400,7 +18401,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>404</v>
       </c>
@@ -18435,7 +18436,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>404</v>
       </c>
@@ -18470,7 +18471,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>377</v>
       </c>
@@ -18505,7 +18506,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>381</v>
       </c>
@@ -18540,7 +18541,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>383</v>
       </c>
@@ -18575,7 +18576,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>407</v>
       </c>
@@ -18610,7 +18611,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>410</v>
       </c>
@@ -18645,7 +18646,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>413</v>
       </c>
@@ -18680,7 +18681,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>388</v>
       </c>
@@ -18715,7 +18716,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>391</v>
       </c>
@@ -18750,7 +18751,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>416</v>
       </c>
@@ -18785,7 +18786,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>418</v>
       </c>
@@ -18820,7 +18821,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>419</v>
       </c>
@@ -18855,7 +18856,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>399</v>
       </c>
@@ -18890,7 +18891,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>421</v>
       </c>
@@ -18925,7 +18926,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>424</v>
       </c>
@@ -18960,7 +18961,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>426</v>
       </c>
@@ -18995,7 +18996,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>424</v>
       </c>
@@ -19030,7 +19031,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>421</v>
       </c>
@@ -19065,7 +19066,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>426</v>
       </c>
@@ -19100,7 +19101,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>418</v>
       </c>
@@ -19135,7 +19136,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>419</v>
       </c>
@@ -19170,7 +19171,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>424</v>
       </c>
@@ -19205,7 +19206,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>428</v>
       </c>
@@ -19240,7 +19241,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>428</v>
       </c>
@@ -19275,7 +19276,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>431</v>
       </c>
@@ -19310,7 +19311,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>431</v>
       </c>
@@ -19345,7 +19346,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>428</v>
       </c>
@@ -19380,7 +19381,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>303</v>
       </c>
@@ -19450,7 +19451,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>372</v>
       </c>
@@ -19485,7 +19486,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>377</v>
       </c>
@@ -19520,7 +19521,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>381</v>
       </c>
@@ -19555,7 +19556,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>383</v>
       </c>
@@ -19590,7 +19591,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>385</v>
       </c>
@@ -19625,7 +19626,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>388</v>
       </c>
@@ -19660,7 +19661,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>391</v>
       </c>
@@ -19695,7 +19696,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>393</v>
       </c>
@@ -19765,7 +19766,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>396</v>
       </c>
@@ -19800,7 +19801,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>399</v>
       </c>
@@ -19870,7 +19871,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>404</v>
       </c>
@@ -19905,7 +19906,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>404</v>
       </c>
@@ -19940,7 +19941,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>377</v>
       </c>
@@ -19975,7 +19976,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>381</v>
       </c>
@@ -20010,7 +20011,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>383</v>
       </c>
@@ -20045,7 +20046,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>407</v>
       </c>
@@ -20080,7 +20081,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>410</v>
       </c>
@@ -20115,7 +20116,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>410</v>
       </c>
@@ -20150,7 +20151,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>413</v>
       </c>
@@ -20185,7 +20186,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>388</v>
       </c>
@@ -20220,7 +20221,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>391</v>
       </c>
@@ -20255,7 +20256,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>416</v>
       </c>
@@ -20290,7 +20291,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>419</v>
       </c>
@@ -20325,7 +20326,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>399</v>
       </c>
@@ -20360,7 +20361,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>419</v>
       </c>
@@ -20430,7 +20431,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>372</v>
       </c>
@@ -20465,7 +20466,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>375</v>
       </c>
@@ -20500,7 +20501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>377</v>
       </c>
@@ -20535,7 +20536,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>381</v>
       </c>
@@ -20570,7 +20571,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>383</v>
       </c>
@@ -20605,7 +20606,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>385</v>
       </c>
@@ -20640,7 +20641,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>375</v>
       </c>
@@ -20675,7 +20676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>388</v>
       </c>
@@ -20710,7 +20711,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>391</v>
       </c>
@@ -20745,7 +20746,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>393</v>
       </c>
@@ -20815,7 +20816,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>396</v>
       </c>
@@ -20850,7 +20851,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>399</v>
       </c>
@@ -20885,7 +20886,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>375</v>
       </c>
@@ -20955,7 +20956,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>401</v>
       </c>
@@ -20990,7 +20991,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>404</v>
       </c>
@@ -21025,7 +21026,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>404</v>
       </c>
@@ -21060,7 +21061,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>377</v>
       </c>
@@ -21095,7 +21096,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>381</v>
       </c>
@@ -21130,7 +21131,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>383</v>
       </c>
@@ -21165,7 +21166,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>407</v>
       </c>
@@ -21200,7 +21201,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>410</v>
       </c>
@@ -21235,7 +21236,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>375</v>
       </c>
@@ -21270,7 +21271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>413</v>
       </c>
@@ -21305,7 +21306,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>388</v>
       </c>
@@ -21340,7 +21341,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>391</v>
       </c>
@@ -21375,7 +21376,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>416</v>
       </c>
@@ -21410,7 +21411,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>418</v>
       </c>
@@ -21445,7 +21446,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>418</v>
       </c>
@@ -21480,7 +21481,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>419</v>
       </c>
@@ -21515,7 +21516,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>399</v>
       </c>
@@ -21550,7 +21551,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>421</v>
       </c>
@@ -21585,7 +21586,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>426</v>
       </c>
@@ -21620,7 +21621,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>421</v>
       </c>
@@ -21655,7 +21656,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>426</v>
       </c>
@@ -21690,7 +21691,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>418</v>
       </c>
@@ -21725,7 +21726,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>428</v>
       </c>
@@ -21760,7 +21761,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>428</v>
       </c>
@@ -21795,7 +21796,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>431</v>
       </c>
@@ -21830,7 +21831,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>431</v>
       </c>
@@ -21865,7 +21866,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>428</v>
       </c>
@@ -21935,7 +21936,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>372</v>
       </c>
@@ -21970,7 +21971,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>377</v>
       </c>
@@ -22005,7 +22006,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>381</v>
       </c>
@@ -22040,7 +22041,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>383</v>
       </c>
@@ -22075,7 +22076,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>385</v>
       </c>
@@ -22110,7 +22111,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>388</v>
       </c>
@@ -22145,7 +22146,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>391</v>
       </c>
@@ -22180,7 +22181,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>393</v>
       </c>
@@ -22250,7 +22251,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>396</v>
       </c>
@@ -22285,7 +22286,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>399</v>
       </c>
@@ -22355,7 +22356,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>401</v>
       </c>
@@ -22390,7 +22391,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>404</v>
       </c>
@@ -22425,7 +22426,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>404</v>
       </c>
@@ -22460,7 +22461,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>377</v>
       </c>
@@ -22495,7 +22496,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>381</v>
       </c>
@@ -22530,7 +22531,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>383</v>
       </c>
@@ -22565,7 +22566,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>407</v>
       </c>
@@ -22600,7 +22601,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>410</v>
       </c>
@@ -22635,7 +22636,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>410</v>
       </c>
@@ -22670,7 +22671,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>413</v>
       </c>
@@ -22705,7 +22706,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>388</v>
       </c>
@@ -22740,7 +22741,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>391</v>
       </c>
@@ -22775,7 +22776,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>416</v>
       </c>
@@ -22810,7 +22811,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>419</v>
       </c>
@@ -22845,7 +22846,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>399</v>
       </c>
@@ -22880,7 +22881,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>419</v>
       </c>
@@ -22950,7 +22951,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>372</v>
       </c>
@@ -22985,7 +22986,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>375</v>
       </c>
@@ -23020,7 +23021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>377</v>
       </c>
@@ -23055,7 +23056,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>381</v>
       </c>
@@ -23090,7 +23091,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>383</v>
       </c>
@@ -23125,7 +23126,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>385</v>
       </c>
@@ -23160,7 +23161,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>375</v>
       </c>
@@ -23195,7 +23196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>388</v>
       </c>
@@ -23230,7 +23231,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>391</v>
       </c>
@@ -23265,7 +23266,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>393</v>
       </c>
@@ -23300,7 +23301,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>393</v>
       </c>
@@ -23370,7 +23371,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>396</v>
       </c>
@@ -23405,7 +23406,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>399</v>
       </c>
@@ -23440,7 +23441,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>375</v>
       </c>
@@ -23510,7 +23511,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>404</v>
       </c>
@@ -23545,7 +23546,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>404</v>
       </c>
@@ -23580,7 +23581,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>377</v>
       </c>
@@ -23615,7 +23616,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>381</v>
       </c>
@@ -23650,7 +23651,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>383</v>
       </c>
@@ -23685,7 +23686,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>407</v>
       </c>
@@ -23720,7 +23721,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>410</v>
       </c>
@@ -23755,7 +23756,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>375</v>
       </c>
@@ -23790,7 +23791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>413</v>
       </c>
@@ -23825,7 +23826,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>388</v>
       </c>
@@ -23860,7 +23861,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>391</v>
       </c>
@@ -23895,7 +23896,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>416</v>
       </c>
@@ -23930,7 +23931,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>418</v>
       </c>
@@ -23965,7 +23966,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>419</v>
       </c>
@@ -24000,7 +24001,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>399</v>
       </c>
@@ -24035,7 +24036,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>421</v>
       </c>
@@ -24070,7 +24071,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>424</v>
       </c>
@@ -24105,7 +24106,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>426</v>
       </c>
@@ -24140,7 +24141,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>375</v>
       </c>
@@ -24175,7 +24176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>424</v>
       </c>
@@ -24210,7 +24211,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>421</v>
       </c>
@@ -24245,7 +24246,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>426</v>
       </c>
@@ -24280,7 +24281,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>418</v>
       </c>
@@ -24315,7 +24316,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>418</v>
       </c>
@@ -24350,7 +24351,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>424</v>
       </c>
@@ -24385,7 +24386,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>419</v>
       </c>
@@ -24420,7 +24421,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>428</v>
       </c>
@@ -24455,7 +24456,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>428</v>
       </c>
@@ -24490,7 +24491,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>431</v>
       </c>
@@ -24525,7 +24526,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>431</v>
       </c>
@@ -24560,7 +24561,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>428</v>
       </c>
@@ -24595,7 +24596,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>471</v>
       </c>
@@ -24630,7 +24631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>377</v>
       </c>
@@ -24665,7 +24666,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>471</v>
       </c>
@@ -24700,7 +24701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>475</v>
       </c>
@@ -24735,7 +24736,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>477</v>
       </c>
@@ -24770,7 +24771,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>479</v>
       </c>
@@ -24805,7 +24806,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>483</v>
       </c>
@@ -24840,7 +24841,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>479</v>
       </c>
@@ -24875,7 +24876,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>475</v>
       </c>
@@ -24910,7 +24911,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>477</v>
       </c>
@@ -24945,7 +24946,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>483</v>
       </c>
@@ -24980,7 +24981,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>471</v>
       </c>
@@ -25015,7 +25016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>475</v>
       </c>
@@ -25050,7 +25051,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>475</v>
       </c>
@@ -25085,7 +25086,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>477</v>
       </c>
@@ -25120,7 +25121,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>479</v>
       </c>
@@ -25155,7 +25156,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>483</v>
       </c>
@@ -25190,7 +25191,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>479</v>
       </c>
@@ -25225,7 +25226,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>475</v>
       </c>
@@ -25260,7 +25261,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>477</v>
       </c>
@@ -25295,7 +25296,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>483</v>
       </c>
@@ -25330,7 +25331,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>471</v>
       </c>
@@ -25365,7 +25366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>475</v>
       </c>
@@ -25400,7 +25401,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>475</v>
       </c>
@@ -25435,7 +25436,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>477</v>
       </c>
@@ -25470,7 +25471,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>479</v>
       </c>
@@ -25505,7 +25506,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>483</v>
       </c>
@@ -25540,7 +25541,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>479</v>
       </c>
@@ -25575,7 +25576,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>475</v>
       </c>
@@ -25610,7 +25611,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>477</v>
       </c>
@@ -25645,7 +25646,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>483</v>
       </c>
@@ -25680,7 +25681,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>471</v>
       </c>
@@ -25715,7 +25716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>475</v>
       </c>
@@ -25750,7 +25751,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>475</v>
       </c>
@@ -25785,7 +25786,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>477</v>
       </c>
@@ -25820,7 +25821,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>479</v>
       </c>
@@ -25855,7 +25856,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>483</v>
       </c>
@@ -25890,7 +25891,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>479</v>
       </c>
@@ -25925,7 +25926,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>475</v>
       </c>
@@ -25960,7 +25961,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>477</v>
       </c>
@@ -25995,7 +25996,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>483</v>
       </c>
@@ -26030,7 +26031,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>471</v>
       </c>
@@ -26065,7 +26066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>475</v>
       </c>
@@ -26100,7 +26101,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>477</v>
       </c>
@@ -26135,7 +26136,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>479</v>
       </c>
@@ -26170,7 +26171,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>483</v>
       </c>
@@ -26205,7 +26206,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>479</v>
       </c>
@@ -26240,7 +26241,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>475</v>
       </c>
@@ -26275,7 +26276,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>477</v>
       </c>
@@ -26310,7 +26311,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>483</v>
       </c>
@@ -26345,7 +26346,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>419</v>
       </c>
@@ -26380,7 +26381,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>492</v>
       </c>
@@ -26450,7 +26451,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>497</v>
       </c>
@@ -26485,7 +26486,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>499</v>
       </c>
@@ -26520,7 +26521,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>501</v>
       </c>
@@ -26555,7 +26556,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>385</v>
       </c>
@@ -26590,7 +26591,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>502</v>
       </c>
@@ -26625,7 +26626,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>502</v>
       </c>
@@ -26660,7 +26661,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>505</v>
       </c>
@@ -26695,7 +26696,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>393</v>
       </c>
@@ -26730,7 +26731,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>393</v>
       </c>
@@ -26800,7 +26801,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>396</v>
       </c>
@@ -26835,7 +26836,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>508</v>
       </c>
@@ -26870,7 +26871,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>510</v>
       </c>
@@ -26905,7 +26906,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>512</v>
       </c>
@@ -26940,7 +26941,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>492</v>
       </c>
@@ -26975,7 +26976,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>401</v>
       </c>
@@ -27010,7 +27011,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>401</v>
       </c>
@@ -27080,7 +27081,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>404</v>
       </c>
@@ -27115,7 +27116,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>404</v>
       </c>
@@ -27150,7 +27151,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>497</v>
       </c>
@@ -27185,7 +27186,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>501</v>
       </c>
@@ -27220,7 +27221,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>407</v>
       </c>
@@ -27255,7 +27256,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>502</v>
       </c>
@@ -27290,7 +27291,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>502</v>
       </c>
@@ -27325,7 +27326,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>505</v>
       </c>
@@ -27360,7 +27361,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>410</v>
       </c>
@@ -27395,7 +27396,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>410</v>
       </c>
@@ -27430,7 +27431,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>413</v>
       </c>
@@ -27465,7 +27466,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>518</v>
       </c>
@@ -27500,7 +27501,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>518</v>
       </c>
@@ -27535,7 +27536,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>518</v>
       </c>
@@ -27570,7 +27571,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>416</v>
       </c>
@@ -27605,7 +27606,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>512</v>
       </c>
@@ -27640,7 +27641,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>418</v>
       </c>
@@ -27675,7 +27676,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>421</v>
       </c>
@@ -27710,7 +27711,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>424</v>
       </c>
@@ -27745,7 +27746,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>426</v>
       </c>
@@ -27780,7 +27781,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>424</v>
       </c>
@@ -27815,7 +27816,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>421</v>
       </c>
@@ -27850,7 +27851,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>426</v>
       </c>
@@ -27885,7 +27886,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>418</v>
       </c>
@@ -27920,7 +27921,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>418</v>
       </c>
@@ -27955,7 +27956,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>424</v>
       </c>
@@ -27990,7 +27991,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>428</v>
       </c>
@@ -28025,7 +28026,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>428</v>
       </c>
@@ -28060,7 +28061,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>431</v>
       </c>
@@ -28095,7 +28096,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>431</v>
       </c>
@@ -28130,7 +28131,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>428</v>
       </c>
@@ -28165,7 +28166,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>492</v>
       </c>
@@ -28200,7 +28201,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>375</v>
       </c>
@@ -28270,7 +28271,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>497</v>
       </c>
@@ -28305,7 +28306,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>499</v>
       </c>
@@ -28340,7 +28341,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>501</v>
       </c>
@@ -28375,7 +28376,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>385</v>
       </c>
@@ -28410,7 +28411,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>502</v>
       </c>
@@ -28445,7 +28446,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>502</v>
       </c>
@@ -28480,7 +28481,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>505</v>
       </c>
@@ -28515,7 +28516,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>375</v>
       </c>
@@ -28550,7 +28551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>393</v>
       </c>
@@ -28585,7 +28586,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>393</v>
       </c>
@@ -28655,7 +28656,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>396</v>
       </c>
@@ -28690,7 +28691,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>508</v>
       </c>
@@ -28725,7 +28726,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>510</v>
       </c>
@@ -28760,7 +28761,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>512</v>
       </c>
@@ -28795,7 +28796,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>492</v>
       </c>
@@ -28830,7 +28831,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>375</v>
       </c>
@@ -28865,7 +28866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>401</v>
       </c>
@@ -28935,7 +28936,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>404</v>
       </c>
@@ -28970,7 +28971,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>404</v>
       </c>
@@ -29005,7 +29006,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>497</v>
       </c>
@@ -29040,7 +29041,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>501</v>
       </c>
@@ -29075,7 +29076,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>407</v>
       </c>
@@ -29110,7 +29111,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>502</v>
       </c>
@@ -29145,7 +29146,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>502</v>
       </c>
@@ -29180,7 +29181,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>505</v>
       </c>
@@ -29215,7 +29216,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>410</v>
       </c>
@@ -29250,7 +29251,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>375</v>
       </c>
@@ -29285,7 +29286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>413</v>
       </c>
@@ -29320,7 +29321,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>518</v>
       </c>
@@ -29355,7 +29356,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>518</v>
       </c>
@@ -29390,7 +29391,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>518</v>
       </c>
@@ -29425,7 +29426,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>416</v>
       </c>
@@ -29460,7 +29461,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>512</v>
       </c>
@@ -29495,7 +29496,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>375</v>
       </c>
@@ -29530,7 +29531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>388</v>
       </c>
@@ -29565,7 +29566,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>492</v>
       </c>
@@ -29635,7 +29636,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>497</v>
       </c>
@@ -29670,7 +29671,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>499</v>
       </c>
@@ -29705,7 +29706,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>501</v>
       </c>
@@ -29740,7 +29741,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>385</v>
       </c>
@@ -29775,7 +29776,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>502</v>
       </c>
@@ -29810,7 +29811,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>502</v>
       </c>
@@ -29845,7 +29846,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>505</v>
       </c>
@@ -29880,7 +29881,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>393</v>
       </c>
@@ -29915,7 +29916,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>393</v>
       </c>
@@ -29985,7 +29986,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>396</v>
       </c>
@@ -30020,7 +30021,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>508</v>
       </c>
@@ -30055,7 +30056,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>510</v>
       </c>
@@ -30090,7 +30091,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>512</v>
       </c>
@@ -30125,7 +30126,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>492</v>
       </c>
@@ -30160,7 +30161,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>401</v>
       </c>
@@ -30195,7 +30196,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>401</v>
       </c>
@@ -30265,7 +30266,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>404</v>
       </c>
@@ -30300,7 +30301,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>404</v>
       </c>
@@ -30335,7 +30336,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>497</v>
       </c>
@@ -30370,7 +30371,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>501</v>
       </c>
@@ -30405,7 +30406,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>407</v>
       </c>
@@ -30440,7 +30441,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>502</v>
       </c>
@@ -30475,7 +30476,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>502</v>
       </c>
@@ -30510,7 +30511,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>505</v>
       </c>
@@ -30545,7 +30546,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>410</v>
       </c>
@@ -30580,7 +30581,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>410</v>
       </c>
@@ -30615,7 +30616,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>303</v>
       </c>
@@ -30650,7 +30651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>413</v>
       </c>
@@ -30685,7 +30686,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>518</v>
       </c>
@@ -30720,7 +30721,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>518</v>
       </c>
@@ -30755,7 +30756,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>518</v>
       </c>
@@ -30790,7 +30791,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>416</v>
       </c>
@@ -30825,7 +30826,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>512</v>
       </c>
@@ -30860,7 +30861,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>418</v>
       </c>
@@ -30895,7 +30896,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>421</v>
       </c>
@@ -30930,7 +30931,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>424</v>
       </c>
@@ -30965,7 +30966,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>426</v>
       </c>
@@ -31000,7 +31001,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>424</v>
       </c>
@@ -31035,7 +31036,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>421</v>
       </c>
@@ -31070,7 +31071,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>426</v>
       </c>
@@ -31105,7 +31106,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>418</v>
       </c>
@@ -31140,7 +31141,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>424</v>
       </c>
@@ -31175,7 +31176,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>428</v>
       </c>
@@ -31210,7 +31211,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>428</v>
       </c>
@@ -31245,7 +31246,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>431</v>
       </c>
@@ -31280,7 +31281,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>431</v>
       </c>
@@ -31315,7 +31316,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>428</v>
       </c>
@@ -31350,7 +31351,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>492</v>
       </c>
@@ -31420,7 +31421,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>497</v>
       </c>
@@ -31455,7 +31456,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>499</v>
       </c>
@@ -31490,7 +31491,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>501</v>
       </c>
@@ -31525,7 +31526,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>385</v>
       </c>
@@ -31560,7 +31561,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>502</v>
       </c>
@@ -31595,7 +31596,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>502</v>
       </c>
@@ -31630,7 +31631,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>505</v>
       </c>
@@ -31665,7 +31666,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>393</v>
       </c>
@@ -31735,7 +31736,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>396</v>
       </c>
@@ -31770,7 +31771,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>508</v>
       </c>
@@ -31805,7 +31806,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>510</v>
       </c>
@@ -31840,7 +31841,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>512</v>
       </c>
@@ -31875,7 +31876,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>492</v>
       </c>
@@ -31910,7 +31911,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>401</v>
       </c>
@@ -31945,7 +31946,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>401</v>
       </c>
@@ -32015,7 +32016,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>404</v>
       </c>
@@ -32050,7 +32051,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>404</v>
       </c>
@@ -32085,7 +32086,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>497</v>
       </c>
@@ -32120,7 +32121,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>501</v>
       </c>
@@ -32155,7 +32156,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>407</v>
       </c>
@@ -32190,7 +32191,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>502</v>
       </c>
@@ -32225,7 +32226,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>502</v>
       </c>
@@ -32260,7 +32261,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>505</v>
       </c>
@@ -32295,7 +32296,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>410</v>
       </c>
@@ -32330,7 +32331,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>413</v>
       </c>
@@ -32365,7 +32366,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>518</v>
       </c>
@@ -32400,7 +32401,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>518</v>
       </c>
@@ -32435,7 +32436,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>518</v>
       </c>
@@ -32470,7 +32471,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>416</v>
       </c>
@@ -32505,7 +32506,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>512</v>
       </c>
@@ -32540,7 +32541,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>492</v>
       </c>
@@ -32575,7 +32576,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>547</v>
       </c>
@@ -32645,7 +32646,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>497</v>
       </c>
@@ -32680,7 +32681,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>499</v>
       </c>
@@ -32715,7 +32716,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>501</v>
       </c>
@@ -32750,7 +32751,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>385</v>
       </c>
@@ -32785,7 +32786,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>502</v>
       </c>
@@ -32820,7 +32821,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>502</v>
       </c>
@@ -32855,7 +32856,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>505</v>
       </c>
@@ -32890,7 +32891,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>393</v>
       </c>
@@ -32960,7 +32961,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>396</v>
       </c>
@@ -32995,7 +32996,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>508</v>
       </c>
@@ -33030,7 +33031,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>510</v>
       </c>
@@ -33065,7 +33066,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>512</v>
       </c>
@@ -33100,7 +33101,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>492</v>
       </c>
@@ -33135,7 +33136,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>401</v>
       </c>
@@ -33170,7 +33171,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>401</v>
       </c>
@@ -33240,7 +33241,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>404</v>
       </c>
@@ -33275,7 +33276,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>404</v>
       </c>
@@ -33310,7 +33311,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>497</v>
       </c>
@@ -33345,7 +33346,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>501</v>
       </c>
@@ -33380,7 +33381,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>407</v>
       </c>
@@ -33415,7 +33416,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>502</v>
       </c>
@@ -33450,7 +33451,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>502</v>
       </c>
@@ -33485,7 +33486,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>505</v>
       </c>
@@ -33520,7 +33521,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>410</v>
       </c>
@@ -33555,7 +33556,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>413</v>
       </c>
@@ -33590,7 +33591,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>518</v>
       </c>
@@ -33625,7 +33626,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>518</v>
       </c>
@@ -33660,7 +33661,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>518</v>
       </c>
@@ -33695,7 +33696,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>416</v>
       </c>
@@ -33730,7 +33731,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>512</v>
       </c>
@@ -33765,7 +33766,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>499</v>
       </c>
@@ -33800,7 +33801,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>555</v>
       </c>
@@ -33835,7 +33836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>555</v>
       </c>
@@ -33870,7 +33871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>559</v>
       </c>
@@ -33905,7 +33906,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>562</v>
       </c>
@@ -33940,7 +33941,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>563</v>
       </c>
@@ -33975,7 +33976,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="896" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>565</v>
       </c>
@@ -34010,7 +34011,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="897" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>559</v>
       </c>
@@ -34045,7 +34046,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="898" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>562</v>
       </c>
@@ -34080,7 +34081,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="899" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>563</v>
       </c>
@@ -34115,7 +34116,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="900" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>565</v>
       </c>
@@ -34150,7 +34151,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="901" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>555</v>
       </c>
@@ -34185,7 +34186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="902" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>559</v>
       </c>
@@ -34220,7 +34221,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="903" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>562</v>
       </c>
@@ -34255,7 +34256,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="904" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>562</v>
       </c>
@@ -34290,7 +34291,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="905" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>563</v>
       </c>
@@ -34325,7 +34326,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="906" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>565</v>
       </c>
@@ -34360,7 +34361,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="907" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>559</v>
       </c>
@@ -34395,7 +34396,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="908" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>562</v>
       </c>
@@ -34430,7 +34431,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="909" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>562</v>
       </c>
@@ -34465,7 +34466,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="910" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>563</v>
       </c>
@@ -34500,7 +34501,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="911" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>565</v>
       </c>
@@ -34535,7 +34536,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="912" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>555</v>
       </c>
@@ -34570,7 +34571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="913" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>559</v>
       </c>
@@ -34605,7 +34606,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="914" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>562</v>
       </c>
@@ -34640,7 +34641,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="915" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>563</v>
       </c>
@@ -34675,7 +34676,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="916" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>565</v>
       </c>
@@ -34710,7 +34711,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="917" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>559</v>
       </c>
@@ -34745,7 +34746,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="918" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>562</v>
       </c>
@@ -34780,7 +34781,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="919" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>562</v>
       </c>
@@ -34815,7 +34816,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="920" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>563</v>
       </c>
@@ -34850,7 +34851,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="921" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>565</v>
       </c>
@@ -34885,7 +34886,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="922" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>555</v>
       </c>
@@ -34920,7 +34921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="923" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>559</v>
       </c>
@@ -34955,7 +34956,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="924" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>562</v>
       </c>
@@ -34990,7 +34991,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="925" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>563</v>
       </c>
@@ -35025,7 +35026,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="926" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>565</v>
       </c>
@@ -35060,7 +35061,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="927" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>559</v>
       </c>
@@ -35095,7 +35096,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="928" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>562</v>
       </c>
@@ -35130,7 +35131,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="929" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>562</v>
       </c>
@@ -35165,7 +35166,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="930" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>563</v>
       </c>
@@ -35200,7 +35201,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="931" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>565</v>
       </c>
@@ -35235,7 +35236,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="932" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>555</v>
       </c>
@@ -35270,7 +35271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="933" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>559</v>
       </c>
@@ -35305,7 +35306,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="934" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>562</v>
       </c>
@@ -35340,7 +35341,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="935" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>562</v>
       </c>
@@ -35375,7 +35376,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="936" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>563</v>
       </c>
@@ -35410,7 +35411,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="937" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>565</v>
       </c>
@@ -35445,7 +35446,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="938" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>559</v>
       </c>
@@ -35480,7 +35481,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="939" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>562</v>
       </c>
@@ -35515,7 +35516,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="940" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>562</v>
       </c>
@@ -35550,7 +35551,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="941" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>563</v>
       </c>
@@ -35585,7 +35586,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="942" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>565</v>
       </c>
@@ -35620,7 +35621,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="943" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>555</v>
       </c>
@@ -35655,7 +35656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="944" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>547</v>
       </c>
@@ -35690,7 +35691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="945" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>578</v>
       </c>
@@ -35725,7 +35726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="946" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>547</v>
       </c>
@@ -35760,7 +35761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="947" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>578</v>
       </c>
@@ -35795,7 +35796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="948" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>581</v>
       </c>
@@ -35830,7 +35831,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="949" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>582</v>
       </c>
@@ -35865,7 +35866,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="950" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>584</v>
       </c>
@@ -35900,7 +35901,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="951" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>582</v>
       </c>
@@ -35935,7 +35936,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="952" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>584</v>
       </c>
@@ -35970,7 +35971,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="953" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>581</v>
       </c>
@@ -36005,7 +36006,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="954" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>547</v>
       </c>
@@ -36040,7 +36041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="955" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>578</v>
       </c>
@@ -36075,7 +36076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="956" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>581</v>
       </c>
@@ -36110,7 +36111,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="957" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>582</v>
       </c>
@@ -36145,7 +36146,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="958" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>584</v>
       </c>
@@ -36180,7 +36181,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="959" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>582</v>
       </c>
@@ -36215,7 +36216,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="960" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>584</v>
       </c>
@@ -36250,7 +36251,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="961" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>581</v>
       </c>
@@ -36285,7 +36286,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="962" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>547</v>
       </c>
@@ -36320,7 +36321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="963" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>578</v>
       </c>
@@ -36355,7 +36356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="964" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>581</v>
       </c>
@@ -36390,7 +36391,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="965" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>582</v>
       </c>
@@ -36425,7 +36426,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="966" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>584</v>
       </c>
@@ -36460,7 +36461,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="967" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>582</v>
       </c>
@@ -36495,7 +36496,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="968" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>584</v>
       </c>
@@ -36530,7 +36531,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="969" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>581</v>
       </c>
@@ -36565,7 +36566,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="970" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>547</v>
       </c>
@@ -36600,7 +36601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="971" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>578</v>
       </c>
@@ -36635,7 +36636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="972" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>581</v>
       </c>
@@ -36670,7 +36671,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="973" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
         <v>582</v>
       </c>
@@ -36705,7 +36706,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="974" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>584</v>
       </c>
@@ -36740,7 +36741,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="975" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>582</v>
       </c>
@@ -36775,7 +36776,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="976" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>584</v>
       </c>
@@ -36810,7 +36811,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="977" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>581</v>
       </c>
@@ -36845,7 +36846,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="978" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>547</v>
       </c>
@@ -36880,7 +36881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="979" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>578</v>
       </c>
@@ -36915,7 +36916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="980" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>581</v>
       </c>
@@ -36950,7 +36951,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="981" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>582</v>
       </c>
@@ -36985,7 +36986,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="982" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>584</v>
       </c>
@@ -37020,7 +37021,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="983" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>582</v>
       </c>
@@ -37055,7 +37056,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="984" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>584</v>
       </c>
@@ -37090,7 +37091,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="985" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>581</v>
       </c>
@@ -37125,7 +37126,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="986" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>584</v>
       </c>
@@ -37161,7 +37162,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K986" xr:uid="{E2DB3BD2-7720-4353-8900-0C17D8939817}"/>
+  <autoFilter ref="A1:K986" xr:uid="{E2DB3BD2-7720-4353-8900-0C17D8939817}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Lecture"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Susx Plc LT1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>